--- a/target/test-classes/com/cts/Academic/testdata/academic.xlsx
+++ b/target/test-classes/com/cts/Academic/testdata/academic.xlsx
@@ -24,21 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>confirmpwd</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>msreedharreddy447@gmail.com</t>
   </si>
   <si>
     <t>Sreedhar@447</t>
+  </si>
+  <si>
+    <t>Goutham@123</t>
+  </si>
+  <si>
+    <t>goutham@143gmail.com</t>
   </si>
 </sst>
 </file>
@@ -369,34 +366,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -404,6 +404,9 @@
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C1" r:id="rId4"/>
+    <hyperlink ref="B1" r:id="rId5"/>
+    <hyperlink ref="A1" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
